--- a/StructureDefinition-ext-R5-DeviceDefinition.regulatoryIdentifier.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.regulatoryIdentifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.regulatoryIdentifier` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.regulatoryIdentifier` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.regulatoryIdentifier` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:DeviceDefinition</t>
   </si>
   <si>
     <t>ID</t>
@@ -345,7 +345,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.regulatoryIdentifier.type` is part of an existing definition because parent element `DeviceDefinition.regulatoryIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.regulatoryIdentifier.type` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.regulatoryIdentifier.type` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -428,7 +428,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.regulatoryIdentifier.deviceIdentifier` is part of an existing definition because parent element `DeviceDefinition.regulatoryIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.regulatoryIdentifier.deviceIdentifier` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.regulatoryIdentifier.deviceIdentifier` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:deviceIdentifier.id</t>
@@ -456,7 +456,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.regulatoryIdentifier.issuer` is part of an existing definition because parent element `DeviceDefinition.regulatoryIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.regulatoryIdentifier.issuer` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.regulatoryIdentifier.issuer` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:issuer.id</t>
@@ -484,7 +484,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.regulatoryIdentifier.jurisdiction` is part of an existing definition because parent element `DeviceDefinition.regulatoryIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.regulatoryIdentifier.jurisdiction` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.regulatoryIdentifier.jurisdiction` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:jurisdiction.id</t>
@@ -846,7 +846,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="155.765625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="157.90625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceDefinition.regulatoryIdentifier.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.regulatoryIdentifier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.regulatoryIdentifier` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.regulatoryIdentifier` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.regulatoryIdentifier` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -345,7 +345,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.regulatoryIdentifier.type` is part of an existing definition because parent element `DeviceDefinition.regulatoryIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.regulatoryIdentifier.type` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.regulatoryIdentifier.type` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -392,6 +392,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.regulatoryIdentifier.type</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -428,7 +431,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.regulatoryIdentifier.deviceIdentifier` is part of an existing definition because parent element `DeviceDefinition.regulatoryIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.regulatoryIdentifier.deviceIdentifier` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.regulatoryIdentifier.deviceIdentifier` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:deviceIdentifier.id</t>
@@ -440,6 +443,9 @@
     <t>Extension.extension:deviceIdentifier.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.regulatoryIdentifier.deviceIdentifier</t>
+  </si>
+  <si>
     <t>Extension.extension:deviceIdentifier.value[x]</t>
   </si>
   <si>
@@ -456,7 +462,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.regulatoryIdentifier.issuer` is part of an existing definition because parent element `DeviceDefinition.regulatoryIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.regulatoryIdentifier.issuer` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.regulatoryIdentifier.issuer` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:issuer.id</t>
@@ -468,6 +474,9 @@
     <t>Extension.extension:issuer.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.regulatoryIdentifier.issuer</t>
+  </si>
+  <si>
     <t>Extension.extension:issuer.value[x]</t>
   </si>
   <si>
@@ -484,7 +493,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.regulatoryIdentifier.jurisdiction` is part of an existing definition because parent element `DeviceDefinition.regulatoryIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.regulatoryIdentifier.jurisdiction` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.regulatoryIdentifier.jurisdiction` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:jurisdiction.id</t>
@@ -494,6 +503,9 @@
   </si>
   <si>
     <t>Extension.extension:jurisdiction.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.regulatoryIdentifier.jurisdiction</t>
   </si>
   <si>
     <t>Extension.extension:jurisdiction.value[x]</t>
@@ -846,7 +858,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="157.90625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="155.765625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1654,7 +1666,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1696,7 +1708,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
@@ -1711,15 +1723,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1742,7 +1754,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>103</v>
@@ -1799,7 +1811,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1811,21 +1823,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1850,14 +1862,14 @@
         <v>95</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1926,7 +1938,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2029,7 +2041,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2134,7 +2146,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2177,7 +2189,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2219,7 +2231,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>87</v>
@@ -2234,15 +2246,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2268,10 +2280,10 @@
         <v>88</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2322,7 +2334,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2334,21 +2346,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2373,14 +2385,14 @@
         <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2449,7 +2461,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2552,7 +2564,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2657,7 +2669,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2700,7 +2712,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2742,7 +2754,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -2757,15 +2769,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2791,10 +2803,10 @@
         <v>116</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2845,7 +2857,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2857,21 +2869,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2896,14 +2908,14 @@
         <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2972,7 +2984,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3075,7 +3087,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3180,7 +3192,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3223,7 +3235,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3265,7 +3277,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
@@ -3280,15 +3292,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3314,10 +3326,10 @@
         <v>116</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3368,7 +3380,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3380,18 +3392,18 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3473,7 +3485,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>87</v>
@@ -3488,15 +3500,15 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3519,13 +3531,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3576,7 +3588,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3588,10 +3600,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-DeviceDefinition.regulatoryIdentifier.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.regulatoryIdentifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-DeviceDefinition.regulatoryIdentifier.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.regulatoryIdentifier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="160">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -344,8 +344,7 @@
     <t>The type of identifier itself.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.regulatoryIdentifier.type` is part of an existing definition because parent element `DeviceDefinition.regulatoryIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.regulatoryIdentifier.type` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.regulatoryIdentifier.type` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -392,9 +391,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.regulatoryIdentifier.type</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -411,6 +407,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Device regulatory identifier type.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-devicedefinition-regulatory-identifier-type-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -430,8 +435,7 @@
     <t>The identifier itself.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.regulatoryIdentifier.deviceIdentifier` is part of an existing definition because parent element `DeviceDefinition.regulatoryIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.regulatoryIdentifier.deviceIdentifier` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.regulatoryIdentifier.deviceIdentifier` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:deviceIdentifier.id</t>
@@ -443,9 +447,6 @@
     <t>Extension.extension:deviceIdentifier.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.regulatoryIdentifier.deviceIdentifier</t>
-  </si>
-  <si>
     <t>Extension.extension:deviceIdentifier.value[x]</t>
   </si>
   <si>
@@ -461,8 +462,7 @@
     <t>The organization that issued this identifier.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.regulatoryIdentifier.issuer` is part of an existing definition because parent element `DeviceDefinition.regulatoryIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.regulatoryIdentifier.issuer` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.regulatoryIdentifier.issuer` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:issuer.id</t>
@@ -474,9 +474,6 @@
     <t>Extension.extension:issuer.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.regulatoryIdentifier.issuer</t>
-  </si>
-  <si>
     <t>Extension.extension:issuer.value[x]</t>
   </si>
   <si>
@@ -492,8 +489,7 @@
     <t>The jurisdiction to which the deviceIdentifier applies.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.regulatoryIdentifier.jurisdiction` is part of an existing definition because parent element `DeviceDefinition.regulatoryIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.regulatoryIdentifier.jurisdiction` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.regulatoryIdentifier.jurisdiction` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:jurisdiction.id</t>
@@ -503,9 +499,6 @@
   </si>
   <si>
     <t>Extension.extension:jurisdiction.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.regulatoryIdentifier.jurisdiction</t>
   </si>
   <si>
     <t>Extension.extension:jurisdiction.value[x]</t>
@@ -858,7 +851,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="155.765625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="151.921875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -868,8 +861,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="27.35546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="87.71484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1666,72 +1659,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1754,7 +1747,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>103</v>
@@ -1787,13 +1780,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1811,7 +1804,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1823,21 +1816,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1862,14 +1855,14 @@
         <v>95</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1938,7 +1931,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2041,7 +2034,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2146,7 +2139,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2189,7 +2182,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2231,30 +2224,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2280,10 +2273,10 @@
         <v>88</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2334,7 +2327,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2346,21 +2339,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2385,14 +2378,14 @@
         <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2461,7 +2454,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2564,7 +2557,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2669,7 +2662,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2712,7 +2705,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2754,22 +2747,22 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="19">
@@ -2777,7 +2770,7 @@
         <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2803,10 +2796,10 @@
         <v>116</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2857,7 +2850,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2869,10 +2862,10 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
@@ -3235,7 +3228,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3277,30 +3270,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3380,7 +3373,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3392,18 +3385,18 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3485,30 +3478,30 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3531,13 +3524,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3588,7 +3581,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3600,10 +3593,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
